--- a/RPackageSource/inst/extdata/test_objects/testData.xlsx
+++ b/RPackageSource/inst/extdata/test_objects/testData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="metaBolites" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="subjectmetAbolites" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sUbjectdata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="varmaP" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="modeLs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="modeloptioNs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mEtabolites" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="subjeCtmetabolites" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="subjEctdata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="vaRmap" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="modEls" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="mOdeloptions" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t xml:space="preserve">metabid</t>
   </si>
@@ -382,16 +382,16 @@
     <t xml:space="preserve">categoricAl</t>
   </si>
   <si>
-    <t xml:space="preserve">mOdel</t>
+    <t xml:space="preserve">modEl</t>
   </si>
   <si>
-    <t xml:space="preserve">outcoMes</t>
+    <t xml:space="preserve">oUtcomes</t>
   </si>
   <si>
-    <t xml:space="preserve">exPosure</t>
+    <t xml:space="preserve">eXposure</t>
   </si>
   <si>
-    <t xml:space="preserve">adjustmenT</t>
+    <t xml:space="preserve">adjusTment</t>
   </si>
   <si>
     <t xml:space="preserve">stRatification</t>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">wHere</t>
   </si>
   <si>
-    <t xml:space="preserve">modelSpec</t>
+    <t xml:space="preserve">moDelspec</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -409,7 +409,7 @@
     <t xml:space="preserve">alL metabolites</t>
   </si>
   <si>
-    <t xml:space="preserve">cat1 cOnt1</t>
+    <t xml:space="preserve">cat1 conT1</t>
   </si>
   <si>
     <t xml:space="preserve">new_corr</t>
@@ -424,7 +424,7 @@
     <t xml:space="preserve">cont1</t>
   </si>
   <si>
-    <t xml:space="preserve">cont2 Cont3_corr2</t>
+    <t xml:space="preserve">cont2 cont3_coRr2</t>
   </si>
   <si>
     <t xml:space="preserve">lm</t>
@@ -436,7 +436,7 @@
     <t xml:space="preserve">all metAbolites</t>
   </si>
   <si>
-    <t xml:space="preserve">cat1 cat1_dup</t>
+    <t xml:space="preserve">cat1 cAt1_dup</t>
   </si>
   <si>
     <t xml:space="preserve">glm_linear</t>
@@ -451,7 +451,7 @@
     <t xml:space="preserve">cont2</t>
   </si>
   <si>
-    <t xml:space="preserve">cat2 caT3_2</t>
+    <t xml:space="preserve">cat2 cat3_2</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -460,7 +460,7 @@
     <t xml:space="preserve">all metabOlites</t>
   </si>
   <si>
-    <t xml:space="preserve">cOnt4_miss &gt; 0</t>
+    <t xml:space="preserve">cont4_mIss &gt; 0</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -484,22 +484,10 @@
     <t xml:space="preserve">cOnt1</t>
   </si>
   <si>
-    <t xml:space="preserve">orig_corr</t>
+    <t xml:space="preserve">caT1</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alliin fUcose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydantoin_5_prOpionic_acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catAb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glm.log2</t>
+    <t xml:space="preserve">orig_corr</t>
   </si>
   <si>
     <t xml:space="preserve">MODELSPEC</t>
@@ -528,20 +516,11 @@
   <si>
     <t xml:space="preserve">runCorr</t>
   </si>
-  <si>
-    <t xml:space="preserve">weights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">offset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cont3_corr2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -860,10 +839,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -1160,10 +1139,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -18477,10 +18456,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -34519,10 +34498,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -34701,10 +34680,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -34883,36 +34862,36 @@
         <v>154</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
         <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -34922,25 +34901,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">
@@ -34948,7 +34927,7 @@
         <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
@@ -34976,7 +34955,7 @@
         <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>91</v>
@@ -34990,21 +34969,21 @@
         <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
@@ -35015,44 +34994,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/RPackageSource/inst/extdata/test_objects/testData.xlsx
+++ b/RPackageSource/inst/extdata/test_objects/testData.xlsx
@@ -11,7 +11,7 @@
     <sheet name="subjEctdata" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="vaRmap" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="modEls" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="mOdeloptions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mOdel_types" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">wHere</t>
   </si>
   <si>
-    <t xml:space="preserve">moDelspec</t>
+    <t xml:space="preserve">moDel_type</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -490,7 +490,7 @@
     <t xml:space="preserve">orig_corr</t>
   </si>
   <si>
-    <t xml:space="preserve">MODELSPEC</t>
+    <t xml:space="preserve">MODEL_TYPE</t>
   </si>
   <si>
     <t xml:space="preserve">FUNCTION</t>

--- a/RPackageSource/inst/extdata/test_objects/testData.xlsx
+++ b/RPackageSource/inst/extdata/test_objects/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Users\WHEELE~1\AppData\Local\Temp\6\scp52177\gpfs\gsfs10\users\wheelerwi\COMETS\current_3.0\inst\extdata\test_objects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Users\WHEELE~1\AppData\Local\Temp\8\scp23384\gpfs\gsfs10\users\wheelerwi\COMETS\current_3.0\inst\extdata\test_objects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A62BDA-9254-43F9-A4F6-A40EBB40234A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3DC3D7-2AD5-440D-9B2F-658A81B2F5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20688" yWindow="1260" windowWidth="17964" windowHeight="7656" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20508" yWindow="1176" windowWidth="19752" windowHeight="7668" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mEtabolites" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="178">
   <si>
     <t>metabid</t>
   </si>
@@ -303,9 +303,6 @@
     <t/>
   </si>
   <si>
-    <t>Continuous</t>
-  </si>
-  <si>
     <t>metabolIte_id</t>
   </si>
   <si>
@@ -538,6 +535,30 @@
   </si>
   <si>
     <t>catab (a=1, b=2)</t>
+  </si>
+  <si>
+    <t>exposure_REFERENCE</t>
+  </si>
+  <si>
+    <t>accepteD_ValueS</t>
+  </si>
+  <si>
+    <t>[0, Inf)</t>
+  </si>
+  <si>
+    <t>0, 1</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>a, b</t>
+  </si>
+  <si>
+    <t>0  NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  a</t>
   </si>
 </sst>
 </file>
@@ -34414,18 +34435,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -34438,8 +34460,11 @@
       <c r="D1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -34450,147 +34475,180 @@
         <v>74</v>
       </c>
       <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>91</v>
       </c>
       <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>91</v>
       </c>
       <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
       </c>
       <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
         <v>99</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
       </c>
       <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
         <v>102</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>104</v>
       </c>
       <c r="B7" t="s">
         <v>91</v>
       </c>
       <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>105</v>
       </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" t="s">
         <v>106</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
         <v>166</v>
       </c>
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>109</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
         <v>167</v>
       </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>112</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
         <v>168</v>
       </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>115</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
         <v>169</v>
       </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>118</v>
       </c>
-      <c r="B12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>119</v>
       </c>
-      <c r="D12" t="s">
-        <v>120</v>
+      <c r="E12" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -34601,44 +34659,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>128</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>129</v>
-      </c>
-      <c r="C2" t="s">
-        <v>130</v>
       </c>
       <c r="D2" t="s">
         <v>91</v>
@@ -34650,21 +34717,24 @@
         <v>91</v>
       </c>
       <c r="G2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>132</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>133</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>135</v>
       </c>
       <c r="E3" t="s">
         <v>91</v>
@@ -34673,21 +34743,21 @@
         <v>91</v>
       </c>
       <c r="G3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>137</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>139</v>
       </c>
       <c r="E4" t="s">
         <v>91</v>
@@ -34696,21 +34766,21 @@
         <v>91</v>
       </c>
       <c r="G4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>141</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>142</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>143</v>
-      </c>
-      <c r="D5" t="s">
-        <v>144</v>
       </c>
       <c r="E5" t="s">
         <v>91</v>
@@ -34719,18 +34789,18 @@
         <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
         <v>145</v>
       </c>
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
         <v>91</v>
@@ -34739,21 +34809,21 @@
         <v>91</v>
       </c>
       <c r="F6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>147</v>
       </c>
-      <c r="G6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>148</v>
       </c>
-      <c r="B7" t="s">
-        <v>149</v>
-      </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
         <v>91</v>
@@ -34765,33 +34835,36 @@
         <v>91</v>
       </c>
       <c r="G7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>151</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>152</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>153</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>154</v>
-      </c>
-      <c r="E8" t="s">
-        <v>155</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="H8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -34830,24 +34903,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
         <v>157</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>159</v>
-      </c>
-      <c r="D1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
@@ -34858,10 +34931,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>91</v>
@@ -34872,10 +34945,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>91</v>
@@ -34886,24 +34959,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
         <v>162</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>163</v>
-      </c>
-      <c r="D5" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
